--- a/results/Table1_Antibiogram.xlsx
+++ b/results/Table1_Antibiogram.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="105">
   <si>
     <t>AM</t>
   </si>
   <si>
+    <t>Abbreviation</t>
+  </si>
+  <si>
     <t>NSbp</t>
   </si>
   <si>
@@ -113,13 +116,94 @@
     <t>Vancomycin</t>
   </si>
   <si>
+    <t>CPT</t>
+  </si>
+  <si>
+    <t>ETP</t>
+  </si>
+  <si>
+    <t>OXA</t>
+  </si>
+  <si>
+    <t>PEN</t>
+  </si>
+  <si>
+    <t>CIP</t>
+  </si>
+  <si>
+    <t>LEV</t>
+  </si>
+  <si>
+    <t>MXF</t>
+  </si>
+  <si>
+    <t>AZI</t>
+  </si>
+  <si>
+    <t>CLM</t>
+  </si>
+  <si>
+    <t>ERY</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>ORI</t>
+  </si>
+  <si>
+    <t>TLV</t>
+  </si>
+  <si>
+    <t>GEN</t>
+  </si>
+  <si>
+    <t>DOX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>OMC</t>
+  </si>
+  <si>
+    <t>TET</t>
+  </si>
+  <si>
+    <t>TGC</t>
+  </si>
+  <si>
+    <t>SXT</t>
+  </si>
+  <si>
+    <t>DAP</t>
+  </si>
+  <si>
+    <t>FUS</t>
+  </si>
+  <si>
+    <t>LZD</t>
+  </si>
+  <si>
+    <t>TZD</t>
+  </si>
+  <si>
+    <t>QDA</t>
+  </si>
+  <si>
+    <t>TEC</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
     <t>CLSI</t>
   </si>
   <si>
     <t>FDA</t>
-  </si>
-  <si>
-    <t>CLSI18</t>
   </si>
   <si>
     <t>EUCAST</t>
@@ -309,481 +393,568 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="n">
         <v>1.0</v>
       </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="n">
         <v>2.0</v>
       </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="n">
         <v>2.0</v>
       </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="n">
         <v>0.12</v>
       </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>65</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="n">
         <v>1.0</v>
       </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>66</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="n">
         <v>1.0</v>
       </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="n">
         <v>0.5</v>
       </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>66</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="n">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="n">
         <v>2.0</v>
       </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>67</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="n">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="n">
         <v>2.0</v>
       </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="n">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="n">
         <v>0.5</v>
       </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="n">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="n">
         <v>1.0</v>
       </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="n">
         <v>0.5</v>
       </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="n">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="n">
         <v>0.12</v>
       </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>69</v>
+      </c>
+      <c r="F14" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="n">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="n">
         <v>0.12</v>
       </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="n">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="n">
         <v>4.0</v>
       </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>70</v>
+      </c>
+      <c r="F16" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="n">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="n">
         <v>4.0</v>
       </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>71</v>
+      </c>
+      <c r="F17" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="n">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="n">
         <v>4.0</v>
       </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="F18" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="n">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="n">
         <v>0.5</v>
       </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="F19" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="n">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="n">
         <v>4.0</v>
       </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="F20" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="n">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="n">
         <v>0.5</v>
       </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="F21" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="n">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="n">
         <v>2.0</v>
       </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="F22" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="n">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="n">
         <v>1.0</v>
       </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="F23" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="n">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="n">
         <v>1.0</v>
       </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="F24" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="n">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="n">
         <v>4.0</v>
       </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="F25" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="n">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="n">
         <v>0.5</v>
       </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="F26" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="n">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="n">
         <v>1.0</v>
       </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="F27" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="n">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="n">
         <v>8.0</v>
       </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="F28" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="n">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="n">
         <v>2.0</v>
       </c>
-      <c r="C29" t="s">
-        <v>33</v>
-      </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>77</v>
+      </c>
+      <c r="F29" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/results/Table1_Antibiogram.xlsx
+++ b/results/Table1_Antibiogram.xlsx
@@ -248,85 +248,85 @@
     <t>GP</t>
   </si>
   <si>
-    <t>0.025 (1035)</t>
-  </si>
-  <si>
-    <t>0.17 (110)</t>
-  </si>
-  <si>
-    <t>0.39 (1091)</t>
-  </si>
-  <si>
-    <t>0.85 (943)</t>
-  </si>
-  <si>
-    <t>0.39 (800)</t>
-  </si>
-  <si>
-    <t>0.38 (1090)</t>
-  </si>
-  <si>
-    <t>0.36 (1028)</t>
-  </si>
-  <si>
-    <t>0.62 (144)</t>
-  </si>
-  <si>
-    <t>0.55 (56)</t>
-  </si>
-  <si>
-    <t>0.58 (1089)</t>
-  </si>
-  <si>
-    <t>0.15 (537)</t>
-  </si>
-  <si>
-    <t>0.16 (1085)</t>
-  </si>
-  <si>
-    <t>0.0019 (1030)</t>
-  </si>
-  <si>
-    <t>0.097 (1091)</t>
-  </si>
-  <si>
-    <t>0.036 (1091)</t>
-  </si>
-  <si>
-    <t>0.0087 (923)</t>
-  </si>
-  <si>
-    <t>0.0034 (290)</t>
-  </si>
-  <si>
-    <t>0.022 (458)</t>
-  </si>
-  <si>
-    <t>0.065 (1078)</t>
-  </si>
-  <si>
-    <t>0 (1088)</t>
-  </si>
-  <si>
-    <t>0.025 (1091)</t>
-  </si>
-  <si>
-    <t>0 (1091)</t>
-  </si>
-  <si>
-    <t>0.007 (718)</t>
-  </si>
-  <si>
-    <t>0.00092 (1091)</t>
-  </si>
-  <si>
-    <t>0 (390)</t>
-  </si>
-  <si>
-    <t>0.0029 (345)</t>
-  </si>
-  <si>
-    <t>0 (1090)</t>
+    <t>2.5% (1035)</t>
+  </si>
+  <si>
+    <t>17% (110)</t>
+  </si>
+  <si>
+    <t>39% (1091)</t>
+  </si>
+  <si>
+    <t>85% (943)</t>
+  </si>
+  <si>
+    <t>39% (800)</t>
+  </si>
+  <si>
+    <t>38% (1090)</t>
+  </si>
+  <si>
+    <t>36% (1028)</t>
+  </si>
+  <si>
+    <t>62% (144)</t>
+  </si>
+  <si>
+    <t>55% (56)</t>
+  </si>
+  <si>
+    <t>58% (1089)</t>
+  </si>
+  <si>
+    <t>15% (537)</t>
+  </si>
+  <si>
+    <t>16% (1085)</t>
+  </si>
+  <si>
+    <t>0.19% (1030)</t>
+  </si>
+  <si>
+    <t>9.7% (1091)</t>
+  </si>
+  <si>
+    <t>3.6% (1091)</t>
+  </si>
+  <si>
+    <t>0.87% (923)</t>
+  </si>
+  <si>
+    <t>0.34% (290)</t>
+  </si>
+  <si>
+    <t>2.2% (458)</t>
+  </si>
+  <si>
+    <t>6.5% (1078)</t>
+  </si>
+  <si>
+    <t>0% (1088)</t>
+  </si>
+  <si>
+    <t>2.5% (1091)</t>
+  </si>
+  <si>
+    <t>0% (1091)</t>
+  </si>
+  <si>
+    <t>0.7% (718)</t>
+  </si>
+  <si>
+    <t>0.092% (1091)</t>
+  </si>
+  <si>
+    <t>0% (390)</t>
+  </si>
+  <si>
+    <t>0.29% (345)</t>
+  </si>
+  <si>
+    <t>0% (1090)</t>
   </si>
 </sst>
 </file>

--- a/results/Table1_Antibiogram.xlsx
+++ b/results/Table1_Antibiogram.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="111">
   <si>
     <t>AM</t>
   </si>
@@ -198,6 +198,24 @@
   </si>
   <si>
     <t>VAN</t>
+  </si>
+  <si>
+    <t>&gt; 1</t>
+  </si>
+  <si>
+    <t>&gt; 2</t>
+  </si>
+  <si>
+    <t>&gt; 0.12</t>
+  </si>
+  <si>
+    <t>&gt; 0.5</t>
+  </si>
+  <si>
+    <t>&gt; 4</t>
+  </si>
+  <si>
+    <t>&gt; 8</t>
   </si>
   <si>
     <t>CLSI</t>
@@ -404,17 +422,17 @@
       <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="n">
-        <v>1.0</v>
+      <c r="C2" t="s">
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
@@ -424,17 +442,17 @@
       <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="n">
-        <v>2.0</v>
+      <c r="C3" t="s">
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -444,17 +462,17 @@
       <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="n">
-        <v>2.0</v>
+      <c r="C4" t="s">
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
@@ -464,17 +482,17 @@
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.12</v>
+      <c r="C5" t="s">
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
@@ -484,17 +502,17 @@
       <c r="B6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="n">
-        <v>1.0</v>
+      <c r="C6" t="s">
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -504,17 +522,17 @@
       <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" t="n">
-        <v>1.0</v>
+      <c r="C7" t="s">
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -524,17 +542,17 @@
       <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.5</v>
+      <c r="C8" t="s">
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -544,17 +562,17 @@
       <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="n">
-        <v>2.0</v>
+      <c r="C9" t="s">
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10">
@@ -564,17 +582,17 @@
       <c r="B10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" t="n">
-        <v>2.0</v>
+      <c r="C10" t="s">
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
@@ -584,17 +602,17 @@
       <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.5</v>
+      <c r="C11" t="s">
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
@@ -604,17 +622,17 @@
       <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="n">
-        <v>1.0</v>
+      <c r="C12" t="s">
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13">
@@ -624,17 +642,17 @@
       <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.5</v>
+      <c r="C13" t="s">
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
@@ -644,17 +662,17 @@
       <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.12</v>
+      <c r="C14" t="s">
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15">
@@ -664,17 +682,17 @@
       <c r="B15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.12</v>
+      <c r="C15" t="s">
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
@@ -684,17 +702,17 @@
       <c r="B16" t="s">
         <v>48</v>
       </c>
-      <c r="C16" t="n">
-        <v>4.0</v>
+      <c r="C16" t="s">
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17">
@@ -704,17 +722,17 @@
       <c r="B17" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="n">
-        <v>4.0</v>
+      <c r="C17" t="s">
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
@@ -724,17 +742,17 @@
       <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="C18" t="n">
-        <v>4.0</v>
+      <c r="C18" t="s">
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -744,17 +762,17 @@
       <c r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.5</v>
+      <c r="C19" t="s">
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20">
@@ -764,17 +782,17 @@
       <c r="B20" t="s">
         <v>52</v>
       </c>
-      <c r="C20" t="n">
-        <v>4.0</v>
+      <c r="C20" t="s">
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -784,17 +802,17 @@
       <c r="B21" t="s">
         <v>53</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.5</v>
+      <c r="C21" t="s">
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
@@ -804,17 +822,17 @@
       <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="C22" t="n">
-        <v>2.0</v>
+      <c r="C22" t="s">
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
@@ -824,17 +842,17 @@
       <c r="B23" t="s">
         <v>55</v>
       </c>
-      <c r="C23" t="n">
-        <v>1.0</v>
+      <c r="C23" t="s">
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
@@ -844,17 +862,17 @@
       <c r="B24" t="s">
         <v>56</v>
       </c>
-      <c r="C24" t="n">
-        <v>1.0</v>
+      <c r="C24" t="s">
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25">
@@ -864,17 +882,17 @@
       <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="C25" t="n">
-        <v>4.0</v>
+      <c r="C25" t="s">
+        <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F25" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26">
@@ -884,17 +902,17 @@
       <c r="B26" t="s">
         <v>58</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.5</v>
+      <c r="C26" t="s">
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27">
@@ -904,17 +922,17 @@
       <c r="B27" t="s">
         <v>59</v>
       </c>
-      <c r="C27" t="n">
-        <v>1.0</v>
+      <c r="C27" t="s">
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F27" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28">
@@ -924,17 +942,17 @@
       <c r="B28" t="s">
         <v>60</v>
       </c>
-      <c r="C28" t="n">
-        <v>8.0</v>
+      <c r="C28" t="s">
+        <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -944,17 +962,17 @@
       <c r="B29" t="s">
         <v>61</v>
       </c>
-      <c r="C29" t="n">
-        <v>2.0</v>
+      <c r="C29" t="s">
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
